--- a/data_processed/20250722/BTCUSDVOLSURFACE_20250722.xlsx
+++ b/data_processed/20250722/BTCUSDVOLSURFACE_20250722.xlsx
@@ -8148,7 +8148,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14171,7 +14171,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14345,7 +14345,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15066,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15120,7 +15120,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15589,7 +15589,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20933,7 +20933,7 @@
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -21132,7 +21132,7 @@
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -21219,7 +21219,7 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -21335,7 +21335,7 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250722/BTCUSDVOLSURFACE_20250722.xlsx
+++ b/data_processed/20250722/BTCUSDVOLSURFACE_20250722.xlsx
@@ -19970,7 +19970,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20057,7 +20057,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20086,7 +20086,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20144,7 +20144,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20173,7 +20173,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20202,7 +20202,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20231,7 +20231,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20260,7 +20260,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53286,7 +53286,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53373,7 +53373,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53402,7 +53402,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53431,7 +53431,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53460,7 +53460,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53489,7 +53489,7 @@
       </c>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
